--- a/Code/Results/Cases/Case_4_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9761372383003791</v>
+        <v>1.0413424210947</v>
       </c>
       <c r="D2">
-        <v>0.997494715381635</v>
+        <v>1.040434543382687</v>
       </c>
       <c r="E2">
-        <v>0.9844834969912398</v>
+        <v>1.045000411321775</v>
       </c>
       <c r="F2">
-        <v>0.9852665535176329</v>
+        <v>1.047462803727005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032295883579226</v>
+        <v>1.035147007136494</v>
       </c>
       <c r="J2">
-        <v>0.9990558840438537</v>
+        <v>1.046424145623197</v>
       </c>
       <c r="K2">
-        <v>1.008989063495657</v>
+        <v>1.043216902010085</v>
       </c>
       <c r="L2">
-        <v>0.9961633192929461</v>
+        <v>1.047769880631462</v>
       </c>
       <c r="M2">
-        <v>0.9969350378287422</v>
+        <v>1.050225372359725</v>
       </c>
       <c r="N2">
-        <v>1.000474657992508</v>
+        <v>1.047910187936509</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9866943785670217</v>
+        <v>1.043258014193539</v>
       </c>
       <c r="D3">
-        <v>1.005262228719414</v>
+        <v>1.041837158137755</v>
       </c>
       <c r="E3">
-        <v>0.9944689014173538</v>
+        <v>1.046866709610554</v>
       </c>
       <c r="F3">
-        <v>0.9955757584948661</v>
+        <v>1.049395990408469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035472002631172</v>
+        <v>1.035610101446189</v>
       </c>
       <c r="J3">
-        <v>1.007554459586654</v>
+        <v>1.047980919184381</v>
       </c>
       <c r="K3">
-        <v>1.015828218230416</v>
+        <v>1.044428382097392</v>
       </c>
       <c r="L3">
-        <v>1.00517304632688</v>
+        <v>1.049444783996867</v>
       </c>
       <c r="M3">
-        <v>1.006265563076076</v>
+        <v>1.051967503494144</v>
       </c>
       <c r="N3">
-        <v>1.008985302487379</v>
+        <v>1.049469172294714</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9932394379871727</v>
+        <v>1.044493181957053</v>
       </c>
       <c r="D4">
-        <v>1.010080585852109</v>
+        <v>1.04274084691629</v>
       </c>
       <c r="E4">
-        <v>1.000666610024439</v>
+        <v>1.048070388920144</v>
       </c>
       <c r="F4">
-        <v>1.001974568412836</v>
+        <v>1.050642860900118</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037425536240195</v>
+        <v>1.035906563362</v>
       </c>
       <c r="J4">
-        <v>1.012817675000668</v>
+        <v>1.048983727451384</v>
       </c>
       <c r="K4">
-        <v>1.020058850699105</v>
+        <v>1.045207883381809</v>
       </c>
       <c r="L4">
-        <v>1.010756996303402</v>
+        <v>1.050524207251708</v>
       </c>
       <c r="M4">
-        <v>1.012049220410296</v>
+        <v>1.05309035070554</v>
       </c>
       <c r="N4">
-        <v>1.01425599227098</v>
+        <v>1.05047340466448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9959279302251873</v>
+        <v>1.045011428042567</v>
       </c>
       <c r="D5">
-        <v>1.012060233453232</v>
+        <v>1.043119840344952</v>
       </c>
       <c r="E5">
-        <v>1.003213998027594</v>
+        <v>1.048575493512828</v>
       </c>
       <c r="F5">
-        <v>1.004604663341697</v>
+        <v>1.051166102560471</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03822413753232</v>
+        <v>1.036030438434452</v>
       </c>
       <c r="J5">
-        <v>1.014978172669914</v>
+        <v>1.049404242614403</v>
       </c>
       <c r="K5">
-        <v>1.021794243145392</v>
+        <v>1.045534545269863</v>
       </c>
       <c r="L5">
-        <v>1.013050156407253</v>
+        <v>1.050976974766767</v>
       </c>
       <c r="M5">
-        <v>1.014424616189417</v>
+        <v>1.053561356211751</v>
       </c>
       <c r="N5">
-        <v>1.016419558094728</v>
+        <v>1.050894517007264</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9963757881592106</v>
+        <v>1.045098384774314</v>
       </c>
       <c r="D6">
-        <v>1.012390028400169</v>
+        <v>1.043183421664847</v>
       </c>
       <c r="E6">
-        <v>1.003638439612097</v>
+        <v>1.048660249329363</v>
       </c>
       <c r="F6">
-        <v>1.005042888909871</v>
+        <v>1.051253902498643</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038356941758002</v>
+        <v>1.036051193368319</v>
       </c>
       <c r="J6">
-        <v>1.015337986849041</v>
+        <v>1.049474787021075</v>
       </c>
       <c r="K6">
-        <v>1.022083184538494</v>
+        <v>1.045589332648609</v>
       </c>
       <c r="L6">
-        <v>1.013432123655461</v>
+        <v>1.051052937060133</v>
       </c>
       <c r="M6">
-        <v>1.014820294591852</v>
+        <v>1.053640379749418</v>
       </c>
       <c r="N6">
-        <v>1.016779883251261</v>
+        <v>1.050965161595085</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9932756028134153</v>
+        <v>1.044500110757625</v>
       </c>
       <c r="D7">
-        <v>1.010107214104941</v>
+        <v>1.042745914628391</v>
       </c>
       <c r="E7">
-        <v>1.000700870664162</v>
+        <v>1.048077141747322</v>
       </c>
       <c r="F7">
-        <v>1.002009941180892</v>
+        <v>1.050649856154833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037436294196734</v>
+        <v>1.035908221554543</v>
       </c>
       <c r="J7">
-        <v>1.012846743309813</v>
+        <v>1.048989350556704</v>
       </c>
       <c r="K7">
-        <v>1.020082204456321</v>
+        <v>1.045212252322286</v>
       </c>
       <c r="L7">
-        <v>1.010787845524292</v>
+        <v>1.050530261142592</v>
       </c>
       <c r="M7">
-        <v>1.012081175031678</v>
+        <v>1.053096648360578</v>
       </c>
       <c r="N7">
-        <v>1.014285101860458</v>
+        <v>1.050479035755255</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9797678257367736</v>
+        <v>1.041990719012413</v>
       </c>
       <c r="D8">
-        <v>1.000165207753681</v>
+        <v>1.040909379875173</v>
       </c>
       <c r="E8">
-        <v>0.9879158672236837</v>
+        <v>1.045631964281979</v>
       </c>
       <c r="F8">
-        <v>0.9888102127334211</v>
+        <v>1.048116981225743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033391382804601</v>
+        <v>1.035304176653915</v>
       </c>
       <c r="J8">
-        <v>1.001979653970611</v>
+        <v>1.046951213451327</v>
       </c>
       <c r="K8">
-        <v>1.011342941660034</v>
+        <v>1.04362724883188</v>
       </c>
       <c r="L8">
-        <v>0.9992620526159117</v>
+        <v>1.048336834920993</v>
       </c>
       <c r="M8">
-        <v>1.000143920972793</v>
+        <v>1.050815063099652</v>
       </c>
       <c r="N8">
-        <v>1.003402580007922</v>
+        <v>1.04843800426141</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9534843994223021</v>
+        <v>1.037534513970916</v>
       </c>
       <c r="D9">
-        <v>0.9808565915933786</v>
+        <v>1.037642622605152</v>
       </c>
       <c r="E9">
-        <v>0.9631055646703621</v>
+        <v>1.041292112824263</v>
       </c>
       <c r="F9">
-        <v>0.9631950619188331</v>
+        <v>1.043621857897874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025397095905407</v>
+        <v>1.034215041290589</v>
       </c>
       <c r="J9">
-        <v>0.9807938818580002</v>
+        <v>1.043324230151333</v>
       </c>
       <c r="K9">
-        <v>0.9942680857213362</v>
+        <v>1.04079985123122</v>
       </c>
       <c r="L9">
-        <v>0.9768270032319337</v>
+        <v>1.044437523145791</v>
       </c>
       <c r="M9">
-        <v>0.9769149005914164</v>
+        <v>1.046759771027764</v>
       </c>
       <c r="N9">
-        <v>0.9821867216688692</v>
+        <v>1.04480587022911</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9337955446421792</v>
+        <v>1.034539178568264</v>
       </c>
       <c r="D10">
-        <v>0.9664410238084299</v>
+        <v>1.035443253282162</v>
       </c>
       <c r="E10">
-        <v>0.9445792845664388</v>
+        <v>1.038376596872115</v>
       </c>
       <c r="F10">
-        <v>0.944065929693368</v>
+        <v>1.040602264265911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019333674069738</v>
+        <v>1.03347191202896</v>
       </c>
       <c r="J10">
-        <v>0.9649065176749667</v>
+        <v>1.040881167648084</v>
       </c>
       <c r="K10">
-        <v>0.9814438360427741</v>
+        <v>1.038890842227008</v>
       </c>
       <c r="L10">
-        <v>0.9600268614022774</v>
+        <v>1.041813725580899</v>
       </c>
       <c r="M10">
-        <v>0.9595242778934097</v>
+        <v>1.044031499680332</v>
       </c>
       <c r="N10">
-        <v>0.9662767956063897</v>
+        <v>1.042359338296883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9246072530905933</v>
+        <v>1.033236022027254</v>
       </c>
       <c r="D11">
-        <v>0.9597319513250181</v>
+        <v>1.034485572129359</v>
       </c>
       <c r="E11">
-        <v>0.9359514201369517</v>
+        <v>1.037108558933066</v>
       </c>
       <c r="F11">
-        <v>0.9351563607237806</v>
+        <v>1.039289010994653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016489187247788</v>
+        <v>1.03314599476213</v>
       </c>
       <c r="J11">
-        <v>0.9574914137965423</v>
+        <v>1.039817080555004</v>
       </c>
       <c r="K11">
-        <v>0.9754554303215613</v>
+        <v>1.038058299015407</v>
       </c>
       <c r="L11">
-        <v>0.9521914729671481</v>
+        <v>1.040671557735082</v>
       </c>
       <c r="M11">
-        <v>0.9514142894929515</v>
+        <v>1.042843964311055</v>
       </c>
       <c r="N11">
-        <v>0.9588511614299335</v>
+        <v>1.041293740078079</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9210781161005893</v>
+        <v>1.032751018568413</v>
       </c>
       <c r="D12">
-        <v>0.9571585357288463</v>
+        <v>1.034129025086682</v>
       </c>
       <c r="E12">
-        <v>0.9326406362136116</v>
+        <v>1.036636685569255</v>
       </c>
       <c r="F12">
-        <v>0.9317372828121414</v>
+        <v>1.03880031896375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015394740219341</v>
+        <v>1.033024304891597</v>
       </c>
       <c r="J12">
-        <v>0.9546435619947174</v>
+        <v>1.039420872831167</v>
       </c>
       <c r="K12">
-        <v>0.9731552608811093</v>
+        <v>1.037748146225621</v>
       </c>
       <c r="L12">
-        <v>0.9491830679209078</v>
+        <v>1.040246372960673</v>
       </c>
       <c r="M12">
-        <v>0.9483005545602881</v>
+        <v>1.042401907350157</v>
       </c>
       <c r="N12">
-        <v>0.9559992653518966</v>
+        <v>1.040896969693828</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9218406986574031</v>
+        <v>1.032855097042575</v>
       </c>
       <c r="D13">
-        <v>0.9577144343985404</v>
+        <v>1.034205543132152</v>
       </c>
       <c r="E13">
-        <v>0.9333558895726611</v>
+        <v>1.036737943694212</v>
       </c>
       <c r="F13">
-        <v>0.9324759414453111</v>
+        <v>1.038905185842379</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015631310295877</v>
+        <v>1.033050436407738</v>
       </c>
       <c r="J13">
-        <v>0.9552589147534151</v>
+        <v>1.039505904478202</v>
       </c>
       <c r="K13">
-        <v>0.9736522807169874</v>
+        <v>1.037814716490523</v>
       </c>
       <c r="L13">
-        <v>0.9498330736114521</v>
+        <v>1.040337619144154</v>
       </c>
       <c r="M13">
-        <v>0.9489733137920757</v>
+        <v>1.042496773629387</v>
       </c>
       <c r="N13">
-        <v>0.9566154919820939</v>
+        <v>1.040982122095554</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9243180148829582</v>
+        <v>1.033195951097241</v>
       </c>
       <c r="D14">
-        <v>0.9595209665298413</v>
+        <v>1.034456116713641</v>
       </c>
       <c r="E14">
-        <v>0.9356800123514519</v>
+        <v>1.037069571585825</v>
       </c>
       <c r="F14">
-        <v>0.9348760796007306</v>
+        <v>1.03924863390174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016399525792829</v>
+        <v>1.033135948732129</v>
       </c>
       <c r="J14">
-        <v>0.9572580050784603</v>
+        <v>1.039784349587328</v>
       </c>
       <c r="K14">
-        <v>0.9752669133914301</v>
+        <v>1.038032680342745</v>
       </c>
       <c r="L14">
-        <v>0.9519448879901077</v>
+        <v>1.040636430999971</v>
       </c>
       <c r="M14">
-        <v>0.9511590691305294</v>
+        <v>1.042807443344283</v>
       </c>
       <c r="N14">
-        <v>0.9586174212446998</v>
+        <v>1.041260962628674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9258284067023861</v>
+        <v>1.033405835386244</v>
       </c>
       <c r="D15">
-        <v>0.9606228668582011</v>
+        <v>1.034610393909215</v>
       </c>
       <c r="E15">
-        <v>0.937097422126151</v>
+        <v>1.037273782716218</v>
       </c>
       <c r="F15">
-        <v>0.9363398215992438</v>
+        <v>1.03946012465086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016867659877663</v>
+        <v>1.033188552013739</v>
       </c>
       <c r="J15">
-        <v>0.9584768684350979</v>
+        <v>1.039955781112411</v>
       </c>
       <c r="K15">
-        <v>0.9762513420811703</v>
+        <v>1.038166854039472</v>
       </c>
       <c r="L15">
-        <v>0.9532325927429919</v>
+        <v>1.040820414507262</v>
       </c>
       <c r="M15">
-        <v>0.952491873261591</v>
+        <v>1.04299873009545</v>
       </c>
       <c r="N15">
-        <v>0.9598380155271093</v>
+        <v>1.041432637606186</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9343900480640017</v>
+        <v>1.034625532671801</v>
       </c>
       <c r="D16">
-        <v>0.9668755467720819</v>
+        <v>1.035506697276132</v>
       </c>
       <c r="E16">
-        <v>0.9451379243785739</v>
+        <v>1.038460632151875</v>
       </c>
       <c r="F16">
-        <v>0.9446427858370177</v>
+        <v>1.04068929708898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019517441187167</v>
+        <v>1.033493454226828</v>
       </c>
       <c r="J16">
-        <v>0.9653863014162458</v>
+        <v>1.040951654481889</v>
       </c>
       <c r="K16">
-        <v>0.9818312617189003</v>
+        <v>1.038945968890111</v>
       </c>
       <c r="L16">
-        <v>0.9605339561713645</v>
+        <v>1.041889398037681</v>
       </c>
       <c r="M16">
-        <v>0.9600491592494668</v>
+        <v>1.044110180197168</v>
       </c>
       <c r="N16">
-        <v>0.9667572606956134</v>
+        <v>1.042429925230077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9395725480285458</v>
+        <v>1.035388948533446</v>
       </c>
       <c r="D17">
-        <v>0.9706655399522217</v>
+        <v>1.036067481506731</v>
       </c>
       <c r="E17">
-        <v>0.9500098109725409</v>
+        <v>1.039203593690895</v>
       </c>
       <c r="F17">
-        <v>0.9496734258804641</v>
+        <v>1.04145876592832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021117790369942</v>
+        <v>1.033683597960508</v>
       </c>
       <c r="J17">
-        <v>0.9695686851620495</v>
+        <v>1.041574656697491</v>
       </c>
       <c r="K17">
-        <v>0.98520823026837</v>
+        <v>1.039433086666867</v>
       </c>
       <c r="L17">
-        <v>0.9649550525194368</v>
+        <v>1.042558307309125</v>
       </c>
       <c r="M17">
-        <v>0.9646254138028708</v>
+        <v>1.044805692075131</v>
       </c>
       <c r="N17">
-        <v>0.9709455839060621</v>
+        <v>1.043053812180285</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9425327598582754</v>
+        <v>1.035833643993724</v>
       </c>
       <c r="D18">
-        <v>0.9728319957194956</v>
+        <v>1.036394063579374</v>
       </c>
       <c r="E18">
-        <v>0.9527942208290306</v>
+        <v>1.039636412030817</v>
       </c>
       <c r="F18">
-        <v>0.9525484834299888</v>
+        <v>1.041907031238863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02203050871326</v>
+        <v>1.033794106937875</v>
       </c>
       <c r="J18">
-        <v>0.9719575308811059</v>
+        <v>1.041937444318903</v>
       </c>
       <c r="K18">
-        <v>0.9871367630953517</v>
+        <v>1.039716643343127</v>
       </c>
       <c r="L18">
-        <v>0.96748077202775</v>
+        <v>1.042947889067682</v>
       </c>
       <c r="M18">
-        <v>0.9672398475587061</v>
+        <v>1.045210778251904</v>
       </c>
       <c r="N18">
-        <v>0.9733378220600442</v>
+        <v>1.043417115001731</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.943531929781311</v>
+        <v>1.035985174069553</v>
       </c>
       <c r="D19">
-        <v>0.9735635052624571</v>
+        <v>1.036505333045592</v>
       </c>
       <c r="E19">
-        <v>0.9537343157296421</v>
+        <v>1.039783901339365</v>
       </c>
       <c r="F19">
-        <v>0.9535191706598886</v>
+        <v>1.04205978518038</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022338337140107</v>
+        <v>1.03383172026901</v>
       </c>
       <c r="J19">
-        <v>0.9727638187825087</v>
+        <v>1.042061044612739</v>
       </c>
       <c r="K19">
-        <v>0.9877876320974903</v>
+        <v>1.039813232560115</v>
       </c>
       <c r="L19">
-        <v>0.9683333475273171</v>
+        <v>1.043080628446101</v>
       </c>
       <c r="M19">
-        <v>0.9681223822607518</v>
+        <v>1.045348802163186</v>
       </c>
       <c r="N19">
-        <v>0.9741452549827496</v>
+        <v>1.043540890822162</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9390231025720108</v>
+        <v>1.03530710268227</v>
       </c>
       <c r="D20">
-        <v>0.9702635521376801</v>
+        <v>1.036007367958767</v>
       </c>
       <c r="E20">
-        <v>0.9494931252181804</v>
+        <v>1.03912393684332</v>
       </c>
       <c r="F20">
-        <v>0.9491399126959275</v>
+        <v>1.041376266585581</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020948265340131</v>
+        <v>1.03366323862941</v>
       </c>
       <c r="J20">
-        <v>0.9691252802531076</v>
+        <v>1.041507876583205</v>
       </c>
       <c r="K20">
-        <v>0.9848502418309714</v>
+        <v>1.039380882720169</v>
       </c>
       <c r="L20">
-        <v>0.9644862848289342</v>
+        <v>1.042486600018758</v>
       </c>
       <c r="M20">
-        <v>0.9641401871002158</v>
+        <v>1.044731131871282</v>
       </c>
       <c r="N20">
-        <v>0.9705015493112904</v>
+        <v>1.042986937230576</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9235918689119793</v>
+        <v>1.033095604611918</v>
       </c>
       <c r="D21">
-        <v>0.9589913378093395</v>
+        <v>1.034382351877218</v>
       </c>
       <c r="E21">
-        <v>0.9349986816653617</v>
+        <v>1.036971939600337</v>
       </c>
       <c r="F21">
-        <v>0.9341724703432537</v>
+        <v>1.039147521835599</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016174397227619</v>
+        <v>1.033110784931945</v>
       </c>
       <c r="J21">
-        <v>0.9566720265011864</v>
+        <v>1.039702381087098</v>
       </c>
       <c r="K21">
-        <v>0.9747936333892919</v>
+        <v>1.0379685206668</v>
       </c>
       <c r="L21">
-        <v>0.9513258438770964</v>
+        <v>1.040548464303288</v>
       </c>
       <c r="M21">
-        <v>0.9505183477386683</v>
+        <v>1.04271598538379</v>
       </c>
       <c r="N21">
-        <v>0.9580306105106333</v>
+        <v>1.041178877723772</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9132057673723413</v>
+        <v>1.031699619434981</v>
       </c>
       <c r="D22">
-        <v>0.9514255063477804</v>
+        <v>1.033355876302218</v>
       </c>
       <c r="E22">
-        <v>0.9252616645086505</v>
+        <v>1.035613860498308</v>
       </c>
       <c r="F22">
-        <v>0.9241165199323744</v>
+        <v>1.037741050874226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012950272415682</v>
+        <v>1.032759788096785</v>
       </c>
       <c r="J22">
-        <v>0.9482918163229618</v>
+        <v>1.038561637675406</v>
       </c>
       <c r="K22">
-        <v>0.968024814467399</v>
+        <v>1.03707524313219</v>
       </c>
       <c r="L22">
-        <v>0.9424748305002721</v>
+        <v>1.039324472313135</v>
       </c>
       <c r="M22">
-        <v>0.9413576220732998</v>
+        <v>1.041443453485811</v>
       </c>
       <c r="N22">
-        <v>0.9496384994727319</v>
+        <v>1.04003651432559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9187831812387368</v>
+        <v>1.032440191139284</v>
       </c>
       <c r="D23">
-        <v>0.9554861755011348</v>
+        <v>1.033900488497388</v>
       </c>
       <c r="E23">
-        <v>0.9304886265204279</v>
+        <v>1.036334289857767</v>
       </c>
       <c r="F23">
-        <v>0.9295148196353273</v>
+        <v>1.038487147158313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014682549790966</v>
+        <v>1.032946206612704</v>
       </c>
       <c r="J23">
-        <v>0.9527917683259429</v>
+        <v>1.039166901883751</v>
       </c>
       <c r="K23">
-        <v>0.9716595479225854</v>
+        <v>1.037549292119813</v>
       </c>
       <c r="L23">
-        <v>0.9472271188212534</v>
+        <v>1.039973854594223</v>
       </c>
       <c r="M23">
-        <v>0.9462761510185608</v>
+        <v>1.042118579481723</v>
       </c>
       <c r="N23">
-        <v>0.9541448419237093</v>
+        <v>1.040642638078536</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9392715657262077</v>
+        <v>1.035344087128091</v>
       </c>
       <c r="D24">
-        <v>0.9704453288483501</v>
+        <v>1.036034532270896</v>
       </c>
       <c r="E24">
-        <v>0.9497267691851176</v>
+        <v>1.039159932007302</v>
       </c>
       <c r="F24">
-        <v>0.9493811662415919</v>
+        <v>1.04141354619487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021024930127464</v>
+        <v>1.033672439366356</v>
       </c>
       <c r="J24">
-        <v>0.9693257914703943</v>
+        <v>1.041538053492631</v>
       </c>
       <c r="K24">
-        <v>0.9850121279443018</v>
+        <v>1.039404473200074</v>
       </c>
       <c r="L24">
-        <v>0.9646982636491014</v>
+        <v>1.04251900325339</v>
       </c>
       <c r="M24">
-        <v>0.9643596085258348</v>
+        <v>1.04476482425308</v>
       </c>
       <c r="N24">
-        <v>0.9707023452775045</v>
+        <v>1.043017156994675</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9606188110349309</v>
+        <v>1.038690766469905</v>
       </c>
       <c r="D25">
-        <v>0.9860915137091362</v>
+        <v>1.038490879064143</v>
       </c>
       <c r="E25">
-        <v>0.9698313106780281</v>
+        <v>1.042417895824892</v>
       </c>
       <c r="F25">
-        <v>0.9701391602513985</v>
+        <v>1.044787876679053</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027580352407308</v>
+        <v>1.034499581602679</v>
       </c>
       <c r="J25">
-        <v>0.9865482901583014</v>
+        <v>1.044266223519708</v>
       </c>
       <c r="K25">
-        <v>0.9989096476702685</v>
+        <v>1.0415349756237</v>
       </c>
       <c r="L25">
-        <v>0.9829167358328786</v>
+        <v>1.045449771162648</v>
       </c>
       <c r="M25">
-        <v>0.9832194175902499</v>
+        <v>1.047812424960678</v>
       </c>
       <c r="N25">
-        <v>0.9879493018889965</v>
+        <v>1.045749201336116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_242/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_242/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0413424210947</v>
+        <v>0.9761372383003776</v>
       </c>
       <c r="D2">
-        <v>1.040434543382687</v>
+        <v>0.9974947153816335</v>
       </c>
       <c r="E2">
-        <v>1.045000411321775</v>
+        <v>0.9844834969912385</v>
       </c>
       <c r="F2">
-        <v>1.047462803727005</v>
+        <v>0.9852665535176307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035147007136494</v>
+        <v>1.032295883579225</v>
       </c>
       <c r="J2">
-        <v>1.046424145623197</v>
+        <v>0.9990558840438519</v>
       </c>
       <c r="K2">
-        <v>1.043216902010085</v>
+        <v>1.008989063495656</v>
       </c>
       <c r="L2">
-        <v>1.047769880631462</v>
+        <v>0.9961633192929448</v>
       </c>
       <c r="M2">
-        <v>1.050225372359725</v>
+        <v>0.9969350378287402</v>
       </c>
       <c r="N2">
-        <v>1.047910187936509</v>
+        <v>1.000474657992506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043258014193539</v>
+        <v>0.9866943785670202</v>
       </c>
       <c r="D3">
-        <v>1.041837158137755</v>
+        <v>1.005262228719413</v>
       </c>
       <c r="E3">
-        <v>1.046866709610554</v>
+        <v>0.9944689014173527</v>
       </c>
       <c r="F3">
-        <v>1.049395990408469</v>
+        <v>0.9955757584948648</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035610101446189</v>
+        <v>1.035472002631172</v>
       </c>
       <c r="J3">
-        <v>1.047980919184381</v>
+        <v>1.007554459586653</v>
       </c>
       <c r="K3">
-        <v>1.044428382097392</v>
+        <v>1.015828218230415</v>
       </c>
       <c r="L3">
-        <v>1.049444783996867</v>
+        <v>1.005173046326879</v>
       </c>
       <c r="M3">
-        <v>1.051967503494144</v>
+        <v>1.006265563076075</v>
       </c>
       <c r="N3">
-        <v>1.049469172294714</v>
+        <v>1.008985302487378</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044493181957053</v>
+        <v>0.9932394379871741</v>
       </c>
       <c r="D4">
-        <v>1.04274084691629</v>
+        <v>1.01008058585211</v>
       </c>
       <c r="E4">
-        <v>1.048070388920144</v>
+        <v>1.000666610024441</v>
       </c>
       <c r="F4">
-        <v>1.050642860900118</v>
+        <v>1.001974568412838</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035906563362</v>
+        <v>1.037425536240196</v>
       </c>
       <c r="J4">
-        <v>1.048983727451384</v>
+        <v>1.01281767500067</v>
       </c>
       <c r="K4">
-        <v>1.045207883381809</v>
+        <v>1.020058850699107</v>
       </c>
       <c r="L4">
-        <v>1.050524207251708</v>
+        <v>1.010756996303404</v>
       </c>
       <c r="M4">
-        <v>1.05309035070554</v>
+        <v>1.012049220410297</v>
       </c>
       <c r="N4">
-        <v>1.05047340466448</v>
+        <v>1.014255992270982</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045011428042567</v>
+        <v>0.9959279302251868</v>
       </c>
       <c r="D5">
-        <v>1.043119840344952</v>
+        <v>1.012060233453232</v>
       </c>
       <c r="E5">
-        <v>1.048575493512828</v>
+        <v>1.003213998027594</v>
       </c>
       <c r="F5">
-        <v>1.051166102560471</v>
+        <v>1.004604663341697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036030438434452</v>
+        <v>1.038224137532319</v>
       </c>
       <c r="J5">
-        <v>1.049404242614403</v>
+        <v>1.014978172669913</v>
       </c>
       <c r="K5">
-        <v>1.045534545269863</v>
+        <v>1.021794243145392</v>
       </c>
       <c r="L5">
-        <v>1.050976974766767</v>
+        <v>1.013050156407253</v>
       </c>
       <c r="M5">
-        <v>1.053561356211751</v>
+        <v>1.014424616189417</v>
       </c>
       <c r="N5">
-        <v>1.050894517007264</v>
+        <v>1.016419558094728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045098384774314</v>
+        <v>0.996375788159212</v>
       </c>
       <c r="D6">
-        <v>1.043183421664847</v>
+        <v>1.012390028400169</v>
       </c>
       <c r="E6">
-        <v>1.048660249329363</v>
+        <v>1.003638439612099</v>
       </c>
       <c r="F6">
-        <v>1.051253902498643</v>
+        <v>1.005042888909872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036051193368319</v>
+        <v>1.038356941758002</v>
       </c>
       <c r="J6">
-        <v>1.049474787021075</v>
+        <v>1.015337986849042</v>
       </c>
       <c r="K6">
-        <v>1.045589332648609</v>
+        <v>1.022083184538495</v>
       </c>
       <c r="L6">
-        <v>1.051052937060133</v>
+        <v>1.013432123655462</v>
       </c>
       <c r="M6">
-        <v>1.053640379749418</v>
+        <v>1.014820294591854</v>
       </c>
       <c r="N6">
-        <v>1.050965161595085</v>
+        <v>1.016779883251263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044500110757625</v>
+        <v>0.9932756028134158</v>
       </c>
       <c r="D7">
-        <v>1.042745914628391</v>
+        <v>1.010107214104941</v>
       </c>
       <c r="E7">
-        <v>1.048077141747322</v>
+        <v>1.000700870664162</v>
       </c>
       <c r="F7">
-        <v>1.050649856154833</v>
+        <v>1.002009941180892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035908221554543</v>
+        <v>1.037436294196734</v>
       </c>
       <c r="J7">
-        <v>1.048989350556704</v>
+        <v>1.012846743309813</v>
       </c>
       <c r="K7">
-        <v>1.045212252322286</v>
+        <v>1.020082204456321</v>
       </c>
       <c r="L7">
-        <v>1.050530261142592</v>
+        <v>1.010787845524292</v>
       </c>
       <c r="M7">
-        <v>1.053096648360578</v>
+        <v>1.012081175031678</v>
       </c>
       <c r="N7">
-        <v>1.050479035755255</v>
+        <v>1.014285101860458</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041990719012413</v>
+        <v>0.9797678257367743</v>
       </c>
       <c r="D8">
-        <v>1.040909379875173</v>
+        <v>1.000165207753682</v>
       </c>
       <c r="E8">
-        <v>1.045631964281979</v>
+        <v>0.9879158672236844</v>
       </c>
       <c r="F8">
-        <v>1.048116981225743</v>
+        <v>0.9888102127334213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035304176653915</v>
+        <v>1.033391382804602</v>
       </c>
       <c r="J8">
-        <v>1.046951213451327</v>
+        <v>1.001979653970611</v>
       </c>
       <c r="K8">
-        <v>1.04362724883188</v>
+        <v>1.011342941660035</v>
       </c>
       <c r="L8">
-        <v>1.048336834920993</v>
+        <v>0.9992620526159125</v>
       </c>
       <c r="M8">
-        <v>1.050815063099652</v>
+        <v>1.000143920972794</v>
       </c>
       <c r="N8">
-        <v>1.04843800426141</v>
+        <v>1.003402580007922</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037534513970916</v>
+        <v>0.9534843994223043</v>
       </c>
       <c r="D9">
-        <v>1.037642622605152</v>
+        <v>0.9808565915933805</v>
       </c>
       <c r="E9">
-        <v>1.041292112824263</v>
+        <v>0.9631055646703649</v>
       </c>
       <c r="F9">
-        <v>1.043621857897874</v>
+        <v>0.9631950619188352</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034215041290589</v>
+        <v>1.025397095905408</v>
       </c>
       <c r="J9">
-        <v>1.043324230151333</v>
+        <v>0.9807938818580025</v>
       </c>
       <c r="K9">
-        <v>1.04079985123122</v>
+        <v>0.9942680857213382</v>
       </c>
       <c r="L9">
-        <v>1.044437523145791</v>
+        <v>0.9768270032319363</v>
       </c>
       <c r="M9">
-        <v>1.046759771027764</v>
+        <v>0.9769149005914184</v>
       </c>
       <c r="N9">
-        <v>1.04480587022911</v>
+        <v>0.9821867216688717</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034539178568264</v>
+        <v>0.9337955446421753</v>
       </c>
       <c r="D10">
-        <v>1.035443253282162</v>
+        <v>0.9664410238084266</v>
       </c>
       <c r="E10">
-        <v>1.038376596872115</v>
+        <v>0.9445792845664349</v>
       </c>
       <c r="F10">
-        <v>1.040602264265911</v>
+        <v>0.9440659296933648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03347191202896</v>
+        <v>1.019333674069737</v>
       </c>
       <c r="J10">
-        <v>1.040881167648084</v>
+        <v>0.964906517674963</v>
       </c>
       <c r="K10">
-        <v>1.038890842227008</v>
+        <v>0.981443836042771</v>
       </c>
       <c r="L10">
-        <v>1.041813725580899</v>
+        <v>0.9600268614022736</v>
       </c>
       <c r="M10">
-        <v>1.044031499680332</v>
+        <v>0.9595242778934064</v>
       </c>
       <c r="N10">
-        <v>1.042359338296883</v>
+        <v>0.9662767956063861</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033236022027254</v>
+        <v>0.924607253090595</v>
       </c>
       <c r="D11">
-        <v>1.034485572129359</v>
+        <v>0.9597319513250195</v>
       </c>
       <c r="E11">
-        <v>1.037108558933066</v>
+        <v>0.9359514201369533</v>
       </c>
       <c r="F11">
-        <v>1.039289010994653</v>
+        <v>0.9351563607237821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03314599476213</v>
+        <v>1.016489187247789</v>
       </c>
       <c r="J11">
-        <v>1.039817080555004</v>
+        <v>0.9574914137965439</v>
       </c>
       <c r="K11">
-        <v>1.038058299015407</v>
+        <v>0.9754554303215626</v>
       </c>
       <c r="L11">
-        <v>1.040671557735082</v>
+        <v>0.9521914729671497</v>
       </c>
       <c r="M11">
-        <v>1.042843964311055</v>
+        <v>0.9514142894929528</v>
       </c>
       <c r="N11">
-        <v>1.041293740078079</v>
+        <v>0.9588511614299351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032751018568413</v>
+        <v>0.9210781161005899</v>
       </c>
       <c r="D12">
-        <v>1.034129025086682</v>
+        <v>0.9571585357288467</v>
       </c>
       <c r="E12">
-        <v>1.036636685569255</v>
+        <v>0.9326406362136124</v>
       </c>
       <c r="F12">
-        <v>1.03880031896375</v>
+        <v>0.9317372828121421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033024304891597</v>
+        <v>1.015394740219341</v>
       </c>
       <c r="J12">
-        <v>1.039420872831167</v>
+        <v>0.9546435619947179</v>
       </c>
       <c r="K12">
-        <v>1.037748146225621</v>
+        <v>0.9731552608811095</v>
       </c>
       <c r="L12">
-        <v>1.040246372960673</v>
+        <v>0.9491830679209085</v>
       </c>
       <c r="M12">
-        <v>1.042401907350157</v>
+        <v>0.9483005545602887</v>
       </c>
       <c r="N12">
-        <v>1.040896969693828</v>
+        <v>0.9559992653518975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032855097042575</v>
+        <v>0.9218406986574045</v>
       </c>
       <c r="D13">
-        <v>1.034205543132152</v>
+        <v>0.9577144343985418</v>
       </c>
       <c r="E13">
-        <v>1.036737943694212</v>
+        <v>0.9333558895726628</v>
       </c>
       <c r="F13">
-        <v>1.038905185842379</v>
+        <v>0.9324759414453124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033050436407738</v>
+        <v>1.015631310295878</v>
       </c>
       <c r="J13">
-        <v>1.039505904478202</v>
+        <v>0.9552589147534166</v>
       </c>
       <c r="K13">
-        <v>1.037814716490523</v>
+        <v>0.9736522807169887</v>
       </c>
       <c r="L13">
-        <v>1.040337619144154</v>
+        <v>0.9498330736114534</v>
       </c>
       <c r="M13">
-        <v>1.042496773629387</v>
+        <v>0.9489733137920773</v>
       </c>
       <c r="N13">
-        <v>1.040982122095554</v>
+        <v>0.9566154919820954</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033195951097241</v>
+        <v>0.9243180148829567</v>
       </c>
       <c r="D14">
-        <v>1.034456116713641</v>
+        <v>0.9595209665298403</v>
       </c>
       <c r="E14">
-        <v>1.037069571585825</v>
+        <v>0.9356800123514506</v>
       </c>
       <c r="F14">
-        <v>1.03924863390174</v>
+        <v>0.9348760796007293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033135948732129</v>
+        <v>1.016399525792828</v>
       </c>
       <c r="J14">
-        <v>1.039784349587328</v>
+        <v>0.9572580050784589</v>
       </c>
       <c r="K14">
-        <v>1.038032680342745</v>
+        <v>0.9752669133914291</v>
       </c>
       <c r="L14">
-        <v>1.040636430999971</v>
+        <v>0.9519448879901065</v>
       </c>
       <c r="M14">
-        <v>1.042807443344283</v>
+        <v>0.9511590691305282</v>
       </c>
       <c r="N14">
-        <v>1.041260962628674</v>
+        <v>0.9586174212446982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033405835386244</v>
+        <v>0.9258284067023849</v>
       </c>
       <c r="D15">
-        <v>1.034610393909215</v>
+        <v>0.9606228668582004</v>
       </c>
       <c r="E15">
-        <v>1.037273782716218</v>
+        <v>0.9370974221261497</v>
       </c>
       <c r="F15">
-        <v>1.03946012465086</v>
+        <v>0.9363398215992429</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033188552013739</v>
+        <v>1.016867659877663</v>
       </c>
       <c r="J15">
-        <v>1.039955781112411</v>
+        <v>0.9584768684350968</v>
       </c>
       <c r="K15">
-        <v>1.038166854039472</v>
+        <v>0.9762513420811698</v>
       </c>
       <c r="L15">
-        <v>1.040820414507262</v>
+        <v>0.9532325927429907</v>
       </c>
       <c r="M15">
-        <v>1.04299873009545</v>
+        <v>0.9524918732615902</v>
       </c>
       <c r="N15">
-        <v>1.041432637606186</v>
+        <v>0.9598380155271082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034625532671801</v>
+        <v>0.9343900480640018</v>
       </c>
       <c r="D16">
-        <v>1.035506697276132</v>
+        <v>0.966875546772082</v>
       </c>
       <c r="E16">
-        <v>1.038460632151875</v>
+        <v>0.9451379243785742</v>
       </c>
       <c r="F16">
-        <v>1.04068929708898</v>
+        <v>0.9446427858370179</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033493454226828</v>
+        <v>1.019517441187167</v>
       </c>
       <c r="J16">
-        <v>1.040951654481889</v>
+        <v>0.9653863014162458</v>
       </c>
       <c r="K16">
-        <v>1.038945968890111</v>
+        <v>0.9818312617189003</v>
       </c>
       <c r="L16">
-        <v>1.041889398037681</v>
+        <v>0.9605339561713648</v>
       </c>
       <c r="M16">
-        <v>1.044110180197168</v>
+        <v>0.9600491592494671</v>
       </c>
       <c r="N16">
-        <v>1.042429925230077</v>
+        <v>0.9667572606956136</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035388948533446</v>
+        <v>0.939572548028544</v>
       </c>
       <c r="D17">
-        <v>1.036067481506731</v>
+        <v>0.9706655399522203</v>
       </c>
       <c r="E17">
-        <v>1.039203593690895</v>
+        <v>0.950009810972539</v>
       </c>
       <c r="F17">
-        <v>1.04145876592832</v>
+        <v>0.9496734258804626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033683597960508</v>
+        <v>1.021117790369942</v>
       </c>
       <c r="J17">
-        <v>1.041574656697491</v>
+        <v>0.9695686851620477</v>
       </c>
       <c r="K17">
-        <v>1.039433086666867</v>
+        <v>0.9852082302683683</v>
       </c>
       <c r="L17">
-        <v>1.042558307309125</v>
+        <v>0.9649550525194349</v>
       </c>
       <c r="M17">
-        <v>1.044805692075131</v>
+        <v>0.9646254138028691</v>
       </c>
       <c r="N17">
-        <v>1.043053812180285</v>
+        <v>0.9709455839060603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035833643993724</v>
+        <v>0.9425327598582766</v>
       </c>
       <c r="D18">
-        <v>1.036394063579374</v>
+        <v>0.9728319957194961</v>
       </c>
       <c r="E18">
-        <v>1.039636412030817</v>
+        <v>0.9527942208290315</v>
       </c>
       <c r="F18">
-        <v>1.041907031238863</v>
+        <v>0.9525484834299895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033794106937875</v>
+        <v>1.02203050871326</v>
       </c>
       <c r="J18">
-        <v>1.041937444318903</v>
+        <v>0.9719575308811068</v>
       </c>
       <c r="K18">
-        <v>1.039716643343127</v>
+        <v>0.9871367630953521</v>
       </c>
       <c r="L18">
-        <v>1.042947889067682</v>
+        <v>0.967480772027751</v>
       </c>
       <c r="M18">
-        <v>1.045210778251904</v>
+        <v>0.9672398475587068</v>
       </c>
       <c r="N18">
-        <v>1.043417115001731</v>
+        <v>0.973337822060045</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035985174069553</v>
+        <v>0.9435319297813116</v>
       </c>
       <c r="D19">
-        <v>1.036505333045592</v>
+        <v>0.9735635052624574</v>
       </c>
       <c r="E19">
-        <v>1.039783901339365</v>
+        <v>0.9537343157296427</v>
       </c>
       <c r="F19">
-        <v>1.04205978518038</v>
+        <v>0.9535191706598893</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03383172026901</v>
+        <v>1.022338337140107</v>
       </c>
       <c r="J19">
-        <v>1.042061044612739</v>
+        <v>0.9727638187825091</v>
       </c>
       <c r="K19">
-        <v>1.039813232560115</v>
+        <v>0.9877876320974907</v>
       </c>
       <c r="L19">
-        <v>1.043080628446101</v>
+        <v>0.9683333475273179</v>
       </c>
       <c r="M19">
-        <v>1.045348802163186</v>
+        <v>0.9681223822607524</v>
       </c>
       <c r="N19">
-        <v>1.043540890822162</v>
+        <v>0.9741452549827501</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03530710268227</v>
+        <v>0.9390231025720089</v>
       </c>
       <c r="D20">
-        <v>1.036007367958767</v>
+        <v>0.9702635521376786</v>
       </c>
       <c r="E20">
-        <v>1.03912393684332</v>
+        <v>0.9494931252181787</v>
       </c>
       <c r="F20">
-        <v>1.041376266585581</v>
+        <v>0.9491399126959259</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03366323862941</v>
+        <v>1.02094826534013</v>
       </c>
       <c r="J20">
-        <v>1.041507876583205</v>
+        <v>0.969125280253106</v>
       </c>
       <c r="K20">
-        <v>1.039380882720169</v>
+        <v>0.9848502418309698</v>
       </c>
       <c r="L20">
-        <v>1.042486600018758</v>
+        <v>0.9644862848289324</v>
       </c>
       <c r="M20">
-        <v>1.044731131871282</v>
+        <v>0.9641401871002142</v>
       </c>
       <c r="N20">
-        <v>1.042986937230576</v>
+        <v>0.9705015493112888</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033095604611918</v>
+        <v>0.9235918689119768</v>
       </c>
       <c r="D21">
-        <v>1.034382351877218</v>
+        <v>0.9589913378093377</v>
       </c>
       <c r="E21">
-        <v>1.036971939600337</v>
+        <v>0.9349986816653587</v>
       </c>
       <c r="F21">
-        <v>1.039147521835599</v>
+        <v>0.9341724703432515</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033110784931945</v>
+        <v>1.016174397227618</v>
       </c>
       <c r="J21">
-        <v>1.039702381087098</v>
+        <v>0.9566720265011839</v>
       </c>
       <c r="K21">
-        <v>1.0379685206668</v>
+        <v>0.97479363338929</v>
       </c>
       <c r="L21">
-        <v>1.040548464303288</v>
+        <v>0.9513258438770935</v>
       </c>
       <c r="M21">
-        <v>1.04271598538379</v>
+        <v>0.9505183477386663</v>
       </c>
       <c r="N21">
-        <v>1.041178877723772</v>
+        <v>0.9580306105106307</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031699619434981</v>
+        <v>0.9132057673723404</v>
       </c>
       <c r="D22">
-        <v>1.033355876302218</v>
+        <v>0.9514255063477797</v>
       </c>
       <c r="E22">
-        <v>1.035613860498308</v>
+        <v>0.9252616645086497</v>
       </c>
       <c r="F22">
-        <v>1.037741050874226</v>
+        <v>0.9241165199323738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032759788096785</v>
+        <v>1.012950272415682</v>
       </c>
       <c r="J22">
-        <v>1.038561637675406</v>
+        <v>0.948291816322961</v>
       </c>
       <c r="K22">
-        <v>1.03707524313219</v>
+        <v>0.9680248144673983</v>
       </c>
       <c r="L22">
-        <v>1.039324472313135</v>
+        <v>0.9424748305002713</v>
       </c>
       <c r="M22">
-        <v>1.041443453485811</v>
+        <v>0.9413576220732988</v>
       </c>
       <c r="N22">
-        <v>1.04003651432559</v>
+        <v>0.9496384994727312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032440191139284</v>
+        <v>0.9187831812387365</v>
       </c>
       <c r="D23">
-        <v>1.033900488497388</v>
+        <v>0.9554861755011347</v>
       </c>
       <c r="E23">
-        <v>1.036334289857767</v>
+        <v>0.9304886265204275</v>
       </c>
       <c r="F23">
-        <v>1.038487147158313</v>
+        <v>0.9295148196353268</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032946206612704</v>
+        <v>1.014682549790966</v>
       </c>
       <c r="J23">
-        <v>1.039166901883751</v>
+        <v>0.9527917683259427</v>
       </c>
       <c r="K23">
-        <v>1.037549292119813</v>
+        <v>0.9716595479225852</v>
       </c>
       <c r="L23">
-        <v>1.039973854594223</v>
+        <v>0.947227118821253</v>
       </c>
       <c r="M23">
-        <v>1.042118579481723</v>
+        <v>0.9462761510185601</v>
       </c>
       <c r="N23">
-        <v>1.040642638078536</v>
+        <v>0.9541448419237089</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035344087128091</v>
+        <v>0.9392715657262075</v>
       </c>
       <c r="D24">
-        <v>1.036034532270896</v>
+        <v>0.9704453288483499</v>
       </c>
       <c r="E24">
-        <v>1.039159932007302</v>
+        <v>0.9497267691851172</v>
       </c>
       <c r="F24">
-        <v>1.04141354619487</v>
+        <v>0.9493811662415917</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033672439366356</v>
+        <v>1.021024930127464</v>
       </c>
       <c r="J24">
-        <v>1.041538053492631</v>
+        <v>0.9693257914703943</v>
       </c>
       <c r="K24">
-        <v>1.039404473200074</v>
+        <v>0.9850121279443016</v>
       </c>
       <c r="L24">
-        <v>1.04251900325339</v>
+        <v>0.9646982636491011</v>
       </c>
       <c r="M24">
-        <v>1.04476482425308</v>
+        <v>0.9643596085258347</v>
       </c>
       <c r="N24">
-        <v>1.043017156994675</v>
+        <v>0.9707023452775044</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038690766469905</v>
+        <v>0.9606188110349302</v>
       </c>
       <c r="D25">
-        <v>1.038490879064143</v>
+        <v>0.9860915137091358</v>
       </c>
       <c r="E25">
-        <v>1.042417895824892</v>
+        <v>0.969831310678027</v>
       </c>
       <c r="F25">
-        <v>1.044787876679053</v>
+        <v>0.9701391602513976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034499581602679</v>
+        <v>1.027580352407308</v>
       </c>
       <c r="J25">
-        <v>1.044266223519708</v>
+        <v>0.9865482901583006</v>
       </c>
       <c r="K25">
-        <v>1.0415349756237</v>
+        <v>0.9989096476702679</v>
       </c>
       <c r="L25">
-        <v>1.045449771162648</v>
+        <v>0.9829167358328775</v>
       </c>
       <c r="M25">
-        <v>1.047812424960678</v>
+        <v>0.983219417590249</v>
       </c>
       <c r="N25">
-        <v>1.045749201336116</v>
+        <v>0.9879493018889958</v>
       </c>
     </row>
   </sheetData>
